--- a/config_2.9/banner_style_ui.xlsx
+++ b/config_2.9/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="200">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -1052,7 +1052,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,6 +1113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1145,7 +1151,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,6 +1279,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,9 +1644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4400,7 +4415,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -4432,17 +4447,36 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44">
+        <v>1</v>
+      </c>
+      <c r="F92" s="44">
+        <v>100</v>
+      </c>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="45">
+        <v>1613433600</v>
+      </c>
+      <c r="L92" s="45">
+        <v>1614009599</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -4460,28 +4494,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4498,12 +4518,26 @@
 </comments>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4513,13 +4547,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4531,13 +4565,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/banner_style_ui.xlsx
+++ b/config_2.9/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="200">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -952,14 +952,6 @@
   </si>
   <si>
     <t>茅台弹出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>多页活动弹出--2.16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>多页活动弹出--2.23</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1052,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1121,12 +1113,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1159,7 +1145,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,15 +1273,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,7 +1631,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4419,7 +4396,7 @@
         <v>1612828800</v>
       </c>
       <c r="L90" s="42">
-        <v>1613404799</v>
+        <v>1614614399</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4454,69 +4431,15 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1">
-        <v>91</v>
-      </c>
-      <c r="C92" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44">
-        <v>1</v>
-      </c>
-      <c r="F92" s="44">
-        <v>100</v>
-      </c>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="45">
-        <v>1613433600</v>
-      </c>
-      <c r="L92" s="45">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1">
-        <v>92</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44">
-        <v>1</v>
-      </c>
-      <c r="F93" s="44">
-        <v>100</v>
-      </c>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K93" s="45">
-        <v>1614038400</v>
-      </c>
-      <c r="L93" s="45">
-        <v>1614614399</v>
-      </c>
+    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="19"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+    </row>
+    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="19"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -4526,22 +4449,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4558,13 +4471,31 @@
 </comments>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -4572,46 +4503,38 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/banner_style_ui.xlsx
+++ b/config_2.9/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="202">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -952,6 +952,14 @@
   </si>
   <si>
     <t>茅台弹出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>多页活动弹出--2.16</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>多页活动弹出--2.23</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1642,11 +1650,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4454,7 +4462,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D92" s="44"/>
       <c r="E92" s="44">
@@ -4476,6 +4484,38 @@
       </c>
       <c r="L92" s="45">
         <v>1614009599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44">
+        <v>1</v>
+      </c>
+      <c r="F93" s="44">
+        <v>100</v>
+      </c>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="45">
+        <v>1614038400</v>
+      </c>
+      <c r="L93" s="45">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
